--- a/public/templates/RIS-FORM.xlsx
+++ b/public/templates/RIS-FORM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nia01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NIA-PROJECT\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB1CD9-8340-40B4-9175-CBC945A8E7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A92098-635A-46B2-98AB-66B055FAF7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E11DE2D-246F-4FE9-A25D-7624B1D3D343}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="RIS FORM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'RIS FORM'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'RIS FORM'!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>REQUISITION AND ISSUE SLIP</t>
   </si>
@@ -299,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -568,15 +568,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -781,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -878,74 +869,152 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -966,97 +1035,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,15 +1149,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1193,7 +1187,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1257300" y="5715000"/>
+          <a:off x="1333500" y="4400550"/>
           <a:ext cx="723900" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1518,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE42C26-A459-4BED-8F76-B768940AFC8D}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,12 +1531,12 @@
     <row r="1" spans="1:11" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1555,10 +1549,10 @@
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
         <v>33</v>
@@ -1568,16 +1562,16 @@
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="49"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
@@ -1592,32 +1586,32 @@
       <c r="F5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="50"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="D6" s="20"/>
       <c r="G6" s="3"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="48" t="s">
+      <c r="G7" s="89"/>
+      <c r="H7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
@@ -1626,10 +1620,10 @@
       <c r="B8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="25" t="s">
         <v>14</v>
       </c>
@@ -1639,7 +1633,7 @@
       <c r="G8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="45" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="27" t="s">
@@ -1649,111 +1643,111 @@
     <row r="9" spans="1:11" s="22" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="52"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:11" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="69" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="69" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="37" t="s">
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="39"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="74" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="55"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="82" t="s">
+      <c r="E15" s="71"/>
+      <c r="F15" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="43"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1766,12 +1760,12 @@
     <row r="21" spans="1:9" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1794,38 +1788,33 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="5">
-        <f>H3</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>33</v>
+      <c r="G23" s="81"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="str">
+        <f>I3</f>
+        <v xml:space="preserve">Date: </v>
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="82">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="13">
-        <f>I4</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
@@ -1840,9 +1829,9 @@
       <c r="F25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="94">
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="58">
         <f>I5</f>
         <v>0</v>
       </c>
@@ -1854,21 +1843,21 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="89" t="s">
+      <c r="G27" s="89"/>
+      <c r="H27" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="90"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
@@ -1877,10 +1866,10 @@
       <c r="B28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="93"/>
       <c r="E28" s="25" t="s">
         <v>14</v>
       </c>
@@ -1899,133 +1888,170 @@
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="31"/>
+      <c r="B29" s="28">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="79">
+        <f>C9</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="80"/>
+      <c r="E29" s="31">
+        <f>E9</f>
+        <v>0</v>
+      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="26"/>
+      <c r="H29" s="26">
+        <f>H9</f>
+        <v>0</v>
+      </c>
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
-      <c r="I31" s="35"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" s="22" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="69" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="69" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="71"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="37" t="s">
+      <c r="G32" s="75"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="44"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="43"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="65">
         <f>B14</f>
         <v>0</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="74" t="s">
+      <c r="C34" s="66"/>
+      <c r="D34" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="74" t="s">
+      <c r="E34" s="66"/>
+      <c r="F34" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="54">
-        <f>I14</f>
-        <v>0</v>
-      </c>
+      <c r="G34" s="67"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="80">
+      <c r="B35" s="68">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="82" t="s">
+      <c r="E35" s="71"/>
+      <c r="F35" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="45">
-        <f>I15</f>
-        <v>0</v>
-      </c>
+      <c r="G35" s="72"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="85">
+      <c r="B36" s="61">
         <f>B16</f>
         <v>0</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="43">
-        <f>I16</f>
-        <v>0</v>
-      </c>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:H36"/>
@@ -2040,38 +2066,6 @@
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
